--- a/BayesianResults/PriorsTable4.xlsx
+++ b/BayesianResults/PriorsTable4.xlsx
@@ -249,7 +249,17 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="1" x14ac:knownFonts="1">
+  <numFmts count="1">
+    <numFmt numFmtId="44" formatCode="_-&quot;R$&quot;\ * #,##0.00_-;\-&quot;R$&quot;\ * #,##0.00_-;_-&quot;R$&quot;\ * &quot;-&quot;??_-;_-@_-"/>
+  </numFmts>
+  <fonts count="2" x14ac:knownFonts="1">
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -275,13 +285,16 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
+    <cellStyle name="Currency" xfId="1" builtinId="4"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -594,10 +607,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F67"/>
+  <dimension ref="A1:N67"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="F4" sqref="F4"/>
+    <sheetView tabSelected="1" topLeftCell="A22" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="E8" sqref="E8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -607,6 +620,7 @@
     <col min="3" max="3" width="6" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="8.42578125" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="20.28515625" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="14.28515625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.25">
@@ -643,7 +657,7 @@
         <v>0.05</v>
       </c>
       <c r="F2">
-        <v>5</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.25">
@@ -663,7 +677,7 @@
         <v>0.05</v>
       </c>
       <c r="F3">
-        <v>5</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.25">
@@ -683,7 +697,7 @@
         <v>0.05</v>
       </c>
       <c r="F4">
-        <v>5</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.25">
@@ -703,7 +717,7 @@
         <v>0.05</v>
       </c>
       <c r="F5">
-        <v>5</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.25">
@@ -723,7 +737,7 @@
         <v>0.05</v>
       </c>
       <c r="F6">
-        <v>5</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.25">
@@ -743,7 +757,7 @@
         <v>0.05</v>
       </c>
       <c r="F7">
-        <v>5</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.25">
@@ -763,7 +777,7 @@
         <v>0.05</v>
       </c>
       <c r="F8">
-        <v>5</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.25">
@@ -783,7 +797,7 @@
         <v>0.05</v>
       </c>
       <c r="F9">
-        <v>5</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.25">
@@ -803,7 +817,7 @@
         <v>0.05</v>
       </c>
       <c r="F10">
-        <v>5</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.25">
@@ -823,7 +837,7 @@
         <v>0.05</v>
       </c>
       <c r="F11">
-        <v>5</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.25">
@@ -843,7 +857,7 @@
         <v>0.05</v>
       </c>
       <c r="F12">
-        <v>5</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.25">
@@ -863,7 +877,7 @@
         <v>0.05</v>
       </c>
       <c r="F13">
-        <v>5</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.25">
@@ -883,7 +897,7 @@
         <v>0.05</v>
       </c>
       <c r="F14">
-        <v>5</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.25">
@@ -903,7 +917,7 @@
         <v>0.05</v>
       </c>
       <c r="F15">
-        <v>5</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.25">
@@ -923,10 +937,10 @@
         <v>0.05</v>
       </c>
       <c r="F16">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="17" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>18</v>
       </c>
@@ -943,10 +957,10 @@
         <v>0.05</v>
       </c>
       <c r="F17">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="18" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>19</v>
       </c>
@@ -963,10 +977,10 @@
         <v>0.05</v>
       </c>
       <c r="F18">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="19" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>20</v>
       </c>
@@ -983,10 +997,10 @@
         <v>0.05</v>
       </c>
       <c r="F19">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="20" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>21</v>
       </c>
@@ -1003,10 +1017,10 @@
         <v>0.05</v>
       </c>
       <c r="F20">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="21" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>22</v>
       </c>
@@ -1023,10 +1037,10 @@
         <v>0.05</v>
       </c>
       <c r="F21">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="22" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>23</v>
       </c>
@@ -1043,10 +1057,10 @@
         <v>0.05</v>
       </c>
       <c r="F22">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="23" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>24</v>
       </c>
@@ -1063,10 +1077,11 @@
         <v>0.05</v>
       </c>
       <c r="F23">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
+        <v>0.5</v>
+      </c>
+      <c r="N23" s="1"/>
+    </row>
+    <row r="24" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>25</v>
       </c>
@@ -1083,10 +1098,10 @@
         <v>0.05</v>
       </c>
       <c r="F24">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="25" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>26</v>
       </c>
@@ -1103,10 +1118,10 @@
         <v>0.05</v>
       </c>
       <c r="F25">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="26" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>27</v>
       </c>
@@ -1123,10 +1138,10 @@
         <v>0.05</v>
       </c>
       <c r="F26">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="27" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
         <v>28</v>
       </c>
@@ -1143,10 +1158,10 @@
         <v>0.05</v>
       </c>
       <c r="F27">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="28" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
         <v>29</v>
       </c>
@@ -1163,10 +1178,10 @@
         <v>0.05</v>
       </c>
       <c r="F28">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="29" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
         <v>30</v>
       </c>
@@ -1183,10 +1198,10 @@
         <v>0.05</v>
       </c>
       <c r="F29">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="30" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
         <v>31</v>
       </c>
@@ -1203,10 +1218,10 @@
         <v>0.05</v>
       </c>
       <c r="F30">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.25">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="31" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
         <v>32</v>
       </c>
@@ -1223,10 +1238,10 @@
         <v>0.05</v>
       </c>
       <c r="F31">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.25">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="32" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
         <v>33</v>
       </c>
@@ -1243,7 +1258,7 @@
         <v>0.05</v>
       </c>
       <c r="F32">
-        <v>5</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="33" spans="1:6" x14ac:dyDescent="0.25">
@@ -1263,7 +1278,7 @@
         <v>0.05</v>
       </c>
       <c r="F33">
-        <v>5</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="34" spans="1:6" x14ac:dyDescent="0.25">
@@ -1283,7 +1298,7 @@
         <v>0.05</v>
       </c>
       <c r="F34">
-        <v>5</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="35" spans="1:6" x14ac:dyDescent="0.25">
@@ -1303,7 +1318,7 @@
         <v>0.05</v>
       </c>
       <c r="F35">
-        <v>5</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="36" spans="1:6" x14ac:dyDescent="0.25">
@@ -1323,7 +1338,7 @@
         <v>0.05</v>
       </c>
       <c r="F36">
-        <v>5</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="37" spans="1:6" x14ac:dyDescent="0.25">
@@ -1343,7 +1358,7 @@
         <v>0.05</v>
       </c>
       <c r="F37">
-        <v>5</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="38" spans="1:6" x14ac:dyDescent="0.25">
@@ -1363,7 +1378,7 @@
         <v>0.05</v>
       </c>
       <c r="F38">
-        <v>5</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="39" spans="1:6" x14ac:dyDescent="0.25">
@@ -1383,7 +1398,7 @@
         <v>0.05</v>
       </c>
       <c r="F39">
-        <v>5</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="40" spans="1:6" x14ac:dyDescent="0.25">
@@ -1403,7 +1418,7 @@
         <v>0.05</v>
       </c>
       <c r="F40">
-        <v>5</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="41" spans="1:6" x14ac:dyDescent="0.25">
@@ -1423,7 +1438,7 @@
         <v>0.05</v>
       </c>
       <c r="F41">
-        <v>5</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="42" spans="1:6" x14ac:dyDescent="0.25">
@@ -1443,7 +1458,7 @@
         <v>0.05</v>
       </c>
       <c r="F42">
-        <v>5</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="43" spans="1:6" x14ac:dyDescent="0.25">
@@ -1463,7 +1478,7 @@
         <v>0.05</v>
       </c>
       <c r="F43">
-        <v>5</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="44" spans="1:6" x14ac:dyDescent="0.25">
@@ -1483,7 +1498,7 @@
         <v>0.05</v>
       </c>
       <c r="F44">
-        <v>5</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="45" spans="1:6" x14ac:dyDescent="0.25">
@@ -1497,10 +1512,10 @@
         <v>1</v>
       </c>
       <c r="E45">
-        <v>1E-3</v>
+        <v>0.05</v>
       </c>
       <c r="F45">
-        <v>5</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="46" spans="1:6" x14ac:dyDescent="0.25">
@@ -1514,10 +1529,10 @@
         <v>1</v>
       </c>
       <c r="E46">
-        <v>1E-3</v>
+        <v>0.05</v>
       </c>
       <c r="F46">
-        <v>5</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="47" spans="1:6" x14ac:dyDescent="0.25">
@@ -1531,10 +1546,10 @@
         <v>1</v>
       </c>
       <c r="E47">
-        <v>1E-3</v>
+        <v>0.05</v>
       </c>
       <c r="F47">
-        <v>5</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="48" spans="1:6" x14ac:dyDescent="0.25">
@@ -1548,10 +1563,10 @@
         <v>1</v>
       </c>
       <c r="E48">
-        <v>1E-3</v>
+        <v>0.05</v>
       </c>
       <c r="F48">
-        <v>5</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="49" spans="1:6" x14ac:dyDescent="0.25">
@@ -1565,10 +1580,10 @@
         <v>1</v>
       </c>
       <c r="E49">
-        <v>1E-3</v>
+        <v>0.05</v>
       </c>
       <c r="F49">
-        <v>5</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="50" spans="1:6" x14ac:dyDescent="0.25">
@@ -1582,10 +1597,10 @@
         <v>1</v>
       </c>
       <c r="E50">
-        <v>1E-3</v>
+        <v>0.05</v>
       </c>
       <c r="F50">
-        <v>5</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="51" spans="1:6" x14ac:dyDescent="0.25">
@@ -1599,10 +1614,10 @@
         <v>1</v>
       </c>
       <c r="E51">
-        <v>1E-3</v>
+        <v>0.05</v>
       </c>
       <c r="F51">
-        <v>5</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="52" spans="1:6" x14ac:dyDescent="0.25">
@@ -1616,10 +1631,10 @@
         <v>1</v>
       </c>
       <c r="E52">
-        <v>1E-3</v>
+        <v>0.05</v>
       </c>
       <c r="F52">
-        <v>5</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="53" spans="1:6" x14ac:dyDescent="0.25">
@@ -1633,10 +1648,10 @@
         <v>1</v>
       </c>
       <c r="E53">
-        <v>1E-3</v>
+        <v>0.05</v>
       </c>
       <c r="F53">
-        <v>5</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="54" spans="1:6" x14ac:dyDescent="0.25">
@@ -1650,10 +1665,10 @@
         <v>1</v>
       </c>
       <c r="E54">
-        <v>1E-3</v>
+        <v>0.05</v>
       </c>
       <c r="F54">
-        <v>5</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="55" spans="1:6" x14ac:dyDescent="0.25">
@@ -1667,10 +1682,10 @@
         <v>1</v>
       </c>
       <c r="E55">
-        <v>1E-3</v>
+        <v>0.05</v>
       </c>
       <c r="F55">
-        <v>5</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="56" spans="1:6" x14ac:dyDescent="0.25">
@@ -1684,10 +1699,10 @@
         <v>1</v>
       </c>
       <c r="E56">
-        <v>1E-3</v>
+        <v>0.05</v>
       </c>
       <c r="F56">
-        <v>5</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="57" spans="1:6" x14ac:dyDescent="0.25">
@@ -1701,10 +1716,10 @@
         <v>1</v>
       </c>
       <c r="E57">
-        <v>1E-3</v>
+        <v>0.05</v>
       </c>
       <c r="F57">
-        <v>5</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="58" spans="1:6" x14ac:dyDescent="0.25">
@@ -1718,10 +1733,10 @@
         <v>1</v>
       </c>
       <c r="E58">
-        <v>1E-3</v>
+        <v>0.05</v>
       </c>
       <c r="F58">
-        <v>5</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="59" spans="1:6" x14ac:dyDescent="0.25">
@@ -1735,10 +1750,10 @@
         <v>1</v>
       </c>
       <c r="E59">
-        <v>1E-3</v>
+        <v>0.05</v>
       </c>
       <c r="F59">
-        <v>5</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="60" spans="1:6" x14ac:dyDescent="0.25">
@@ -1752,10 +1767,10 @@
         <v>1</v>
       </c>
       <c r="E60">
-        <v>1E-3</v>
+        <v>0.05</v>
       </c>
       <c r="F60">
-        <v>5</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="61" spans="1:6" x14ac:dyDescent="0.25">
@@ -1769,10 +1784,10 @@
         <v>1</v>
       </c>
       <c r="E61">
-        <v>1E-3</v>
+        <v>0.05</v>
       </c>
       <c r="F61">
-        <v>5</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="62" spans="1:6" x14ac:dyDescent="0.25">
@@ -1786,10 +1801,10 @@
         <v>1</v>
       </c>
       <c r="E62">
-        <v>1E-3</v>
+        <v>0.05</v>
       </c>
       <c r="F62">
-        <v>5</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="63" spans="1:6" x14ac:dyDescent="0.25">
@@ -1803,10 +1818,10 @@
         <v>1</v>
       </c>
       <c r="E63">
-        <v>1E-3</v>
+        <v>0.05</v>
       </c>
       <c r="F63">
-        <v>5</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="64" spans="1:6" x14ac:dyDescent="0.25">
@@ -1820,10 +1835,10 @@
         <v>1</v>
       </c>
       <c r="E64">
-        <v>1E-3</v>
+        <v>0.05</v>
       </c>
       <c r="F64">
-        <v>5</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="65" spans="1:6" x14ac:dyDescent="0.25">
@@ -1837,10 +1852,10 @@
         <v>1</v>
       </c>
       <c r="E65">
-        <v>1E-3</v>
+        <v>0.05</v>
       </c>
       <c r="F65">
-        <v>5</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="66" spans="1:6" x14ac:dyDescent="0.25">
@@ -1854,10 +1869,10 @@
         <v>1</v>
       </c>
       <c r="E66">
-        <v>1E-3</v>
+        <v>0.05</v>
       </c>
       <c r="F66">
-        <v>5</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="67" spans="1:6" x14ac:dyDescent="0.25">
@@ -1871,10 +1886,10 @@
         <v>1</v>
       </c>
       <c r="E67">
-        <v>1E-3</v>
+        <v>0.05</v>
       </c>
       <c r="F67">
-        <v>5</v>
+        <v>0.5</v>
       </c>
     </row>
   </sheetData>

--- a/BayesianResults/PriorsTable4.xlsx
+++ b/BayesianResults/PriorsTable4.xlsx
@@ -14,7 +14,7 @@
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="171027"/>
+  <calcPr calcId="171027" calcMode="manual" calcCompleted="0" calcOnSave="0"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -609,8 +609,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:N67"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A22" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="E8" sqref="E8"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="E17" sqref="E17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -654,7 +654,7 @@
         <v>1</v>
       </c>
       <c r="E2">
-        <v>0.05</v>
+        <v>0.15</v>
       </c>
       <c r="F2">
         <v>0.5</v>
@@ -674,7 +674,7 @@
         <v>1</v>
       </c>
       <c r="E3">
-        <v>0.05</v>
+        <v>0.15</v>
       </c>
       <c r="F3">
         <v>0.5</v>
@@ -694,7 +694,7 @@
         <v>1</v>
       </c>
       <c r="E4">
-        <v>0.05</v>
+        <v>0.15</v>
       </c>
       <c r="F4">
         <v>0.5</v>
@@ -714,7 +714,7 @@
         <v>1</v>
       </c>
       <c r="E5">
-        <v>0.05</v>
+        <v>0.15</v>
       </c>
       <c r="F5">
         <v>0.5</v>
@@ -734,7 +734,7 @@
         <v>1</v>
       </c>
       <c r="E6">
-        <v>0.05</v>
+        <v>0.15</v>
       </c>
       <c r="F6">
         <v>0.5</v>
@@ -754,7 +754,7 @@
         <v>1</v>
       </c>
       <c r="E7">
-        <v>0.05</v>
+        <v>0.15</v>
       </c>
       <c r="F7">
         <v>0.5</v>
@@ -774,7 +774,7 @@
         <v>1</v>
       </c>
       <c r="E8">
-        <v>0.05</v>
+        <v>0.15</v>
       </c>
       <c r="F8">
         <v>0.5</v>
@@ -794,7 +794,7 @@
         <v>1</v>
       </c>
       <c r="E9">
-        <v>0.05</v>
+        <v>0.15</v>
       </c>
       <c r="F9">
         <v>0.5</v>
@@ -814,7 +814,7 @@
         <v>1</v>
       </c>
       <c r="E10">
-        <v>0.05</v>
+        <v>0.15</v>
       </c>
       <c r="F10">
         <v>0.5</v>
@@ -834,7 +834,7 @@
         <v>1</v>
       </c>
       <c r="E11">
-        <v>0.05</v>
+        <v>0.15</v>
       </c>
       <c r="F11">
         <v>0.5</v>
@@ -854,7 +854,7 @@
         <v>1</v>
       </c>
       <c r="E12">
-        <v>0.05</v>
+        <v>0.15</v>
       </c>
       <c r="F12">
         <v>0.5</v>
@@ -874,7 +874,7 @@
         <v>1</v>
       </c>
       <c r="E13">
-        <v>0.05</v>
+        <v>0.15</v>
       </c>
       <c r="F13">
         <v>0.5</v>
@@ -894,7 +894,7 @@
         <v>1</v>
       </c>
       <c r="E14">
-        <v>0.05</v>
+        <v>0.15</v>
       </c>
       <c r="F14">
         <v>0.5</v>
@@ -914,7 +914,7 @@
         <v>1</v>
       </c>
       <c r="E15">
-        <v>0.05</v>
+        <v>0.15</v>
       </c>
       <c r="F15">
         <v>0.5</v>
@@ -934,7 +934,7 @@
         <v>1</v>
       </c>
       <c r="E16">
-        <v>0.05</v>
+        <v>0.15</v>
       </c>
       <c r="F16">
         <v>0.5</v>
@@ -954,7 +954,7 @@
         <v>1</v>
       </c>
       <c r="E17">
-        <v>0.05</v>
+        <v>0.15</v>
       </c>
       <c r="F17">
         <v>0.5</v>
@@ -974,7 +974,7 @@
         <v>1</v>
       </c>
       <c r="E18">
-        <v>0.05</v>
+        <v>0.15</v>
       </c>
       <c r="F18">
         <v>0.5</v>
@@ -994,7 +994,7 @@
         <v>1</v>
       </c>
       <c r="E19">
-        <v>0.05</v>
+        <v>0.15</v>
       </c>
       <c r="F19">
         <v>0.5</v>
@@ -1014,7 +1014,7 @@
         <v>1</v>
       </c>
       <c r="E20">
-        <v>0.05</v>
+        <v>0.15</v>
       </c>
       <c r="F20">
         <v>0.5</v>
@@ -1034,7 +1034,7 @@
         <v>1</v>
       </c>
       <c r="E21">
-        <v>0.05</v>
+        <v>0.15</v>
       </c>
       <c r="F21">
         <v>0.5</v>
@@ -1054,7 +1054,7 @@
         <v>1</v>
       </c>
       <c r="E22">
-        <v>0.05</v>
+        <v>0.15</v>
       </c>
       <c r="F22">
         <v>0.5</v>

--- a/BayesianResults/PriorsTable4.xlsx
+++ b/BayesianResults/PriorsTable4.xlsx
@@ -1,22 +1,25 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="18229"/>
-  <workbookPr defaultThemeVersion="166925"/>
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="7" rupBuild="26215"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="O:\SALES\Fundos de Mercado\Pedro Mattos\Notebooks\Nowcasting\BayesianResults\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/PedroBraz2/Documents/Repos/Nowcasting/BayesianResults/"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="14340" windowHeight="9135"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="19080" windowHeight="14180"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="171027" calcMode="manual" calcCompleted="0" calcOnSave="0"/>
+  <calcPr calcId="150001" calcMode="manual" calcCompleted="0" calcOnSave="0" concurrentCalc="0"/>
   <extLst>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
+      <mx:ArchID Flags="2"/>
+    </ext>
+    <ext uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
   </extLst>
@@ -248,11 +251,11 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <numFmts count="1">
-    <numFmt numFmtId="44" formatCode="_-&quot;R$&quot;\ * #,##0.00_-;\-&quot;R$&quot;\ * #,##0.00_-;_-&quot;R$&quot;\ * &quot;-&quot;??_-;_-@_-"/>
+    <numFmt numFmtId="164" formatCode="_-&quot;R$&quot;\ * #,##0.00_-;\-&quot;R$&quot;\ * #,##0.00_-;_-&quot;R$&quot;\ * &quot;-&quot;??_-;_-@_-"/>
   </numFmts>
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -263,6 +266,22 @@
     <font>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="11"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -285,16 +304,24 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="2">
+  <cellStyleXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
   <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1"/>
   </cellXfs>
-  <cellStyles count="2">
+  <cellStyles count="6">
     <cellStyle name="Currency" xfId="1" builtinId="4"/>
+    <cellStyle name="Followed Hyperlink" xfId="3" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="5" builtinId="9" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="2" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="4" builtinId="8" hidden="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -609,21 +636,21 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:N67"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="E17" sqref="E17"/>
+    <sheetView tabSelected="1" topLeftCell="A25" workbookViewId="0">
+      <selection activeCell="E3" sqref="E2:E44"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="25" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="11.42578125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="11.5" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="6" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="8.42578125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="20.28515625" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="14.28515625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="8.5" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="20.33203125" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="14.33203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.2">
       <c r="B1" t="s">
         <v>0</v>
       </c>
@@ -640,7 +667,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>3</v>
       </c>
@@ -651,16 +678,16 @@
         <v>0</v>
       </c>
       <c r="D2">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="E2">
-        <v>0.15</v>
+        <v>0.2</v>
       </c>
       <c r="F2">
         <v>0.5</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>4</v>
       </c>
@@ -671,16 +698,16 @@
         <v>0</v>
       </c>
       <c r="D3">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="E3">
-        <v>0.15</v>
+        <v>0.2</v>
       </c>
       <c r="F3">
         <v>0.5</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>5</v>
       </c>
@@ -691,16 +718,16 @@
         <v>0</v>
       </c>
       <c r="D4">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="E4">
-        <v>0.15</v>
+        <v>0.2</v>
       </c>
       <c r="F4">
         <v>0.5</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>6</v>
       </c>
@@ -711,16 +738,16 @@
         <v>0</v>
       </c>
       <c r="D5">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="E5">
-        <v>0.15</v>
+        <v>0.2</v>
       </c>
       <c r="F5">
         <v>0.5</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>7</v>
       </c>
@@ -731,16 +758,16 @@
         <v>0</v>
       </c>
       <c r="D6">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="E6">
-        <v>0.15</v>
+        <v>0.2</v>
       </c>
       <c r="F6">
         <v>0.5</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>8</v>
       </c>
@@ -751,16 +778,16 @@
         <v>0</v>
       </c>
       <c r="D7">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="E7">
-        <v>0.15</v>
+        <v>0.2</v>
       </c>
       <c r="F7">
         <v>0.5</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
         <v>9</v>
       </c>
@@ -771,16 +798,16 @@
         <v>0</v>
       </c>
       <c r="D8">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="E8">
-        <v>0.15</v>
+        <v>0.2</v>
       </c>
       <c r="F8">
         <v>0.5</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
         <v>10</v>
       </c>
@@ -791,16 +818,16 @@
         <v>0</v>
       </c>
       <c r="D9">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="E9">
-        <v>0.15</v>
+        <v>0.2</v>
       </c>
       <c r="F9">
         <v>0.5</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
         <v>11</v>
       </c>
@@ -811,16 +838,16 @@
         <v>0</v>
       </c>
       <c r="D10">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="E10">
-        <v>0.15</v>
+        <v>0.2</v>
       </c>
       <c r="F10">
         <v>0.5</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
         <v>12</v>
       </c>
@@ -831,16 +858,16 @@
         <v>0</v>
       </c>
       <c r="D11">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="E11">
-        <v>0.15</v>
+        <v>0.2</v>
       </c>
       <c r="F11">
         <v>0.5</v>
       </c>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
         <v>13</v>
       </c>
@@ -851,16 +878,16 @@
         <v>0</v>
       </c>
       <c r="D12">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="E12">
-        <v>0.15</v>
+        <v>0.2</v>
       </c>
       <c r="F12">
         <v>0.5</v>
       </c>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
         <v>14</v>
       </c>
@@ -871,16 +898,16 @@
         <v>0</v>
       </c>
       <c r="D13">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="E13">
-        <v>0.15</v>
+        <v>0.2</v>
       </c>
       <c r="F13">
         <v>0.5</v>
       </c>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
         <v>15</v>
       </c>
@@ -891,16 +918,16 @@
         <v>0</v>
       </c>
       <c r="D14">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="E14">
-        <v>0.15</v>
+        <v>0.2</v>
       </c>
       <c r="F14">
         <v>0.5</v>
       </c>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
         <v>16</v>
       </c>
@@ -911,16 +938,16 @@
         <v>0</v>
       </c>
       <c r="D15">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="E15">
-        <v>0.15</v>
+        <v>0.2</v>
       </c>
       <c r="F15">
         <v>0.5</v>
       </c>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
         <v>17</v>
       </c>
@@ -931,16 +958,16 @@
         <v>0</v>
       </c>
       <c r="D16">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="E16">
-        <v>0.15</v>
+        <v>0.2</v>
       </c>
       <c r="F16">
         <v>0.5</v>
       </c>
     </row>
-    <row r="17" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
         <v>18</v>
       </c>
@@ -951,16 +978,16 @@
         <v>0</v>
       </c>
       <c r="D17">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="E17">
-        <v>0.15</v>
+        <v>0.2</v>
       </c>
       <c r="F17">
         <v>0.5</v>
       </c>
     </row>
-    <row r="18" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
         <v>19</v>
       </c>
@@ -971,16 +998,16 @@
         <v>0</v>
       </c>
       <c r="D18">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="E18">
-        <v>0.15</v>
+        <v>0.2</v>
       </c>
       <c r="F18">
         <v>0.5</v>
       </c>
     </row>
-    <row r="19" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
         <v>20</v>
       </c>
@@ -991,16 +1018,16 @@
         <v>0</v>
       </c>
       <c r="D19">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="E19">
-        <v>0.15</v>
+        <v>0.2</v>
       </c>
       <c r="F19">
         <v>0.5</v>
       </c>
     </row>
-    <row r="20" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
         <v>21</v>
       </c>
@@ -1011,16 +1038,16 @@
         <v>0</v>
       </c>
       <c r="D20">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="E20">
-        <v>0.15</v>
+        <v>0.2</v>
       </c>
       <c r="F20">
         <v>0.5</v>
       </c>
     </row>
-    <row r="21" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
         <v>22</v>
       </c>
@@ -1031,16 +1058,16 @@
         <v>0</v>
       </c>
       <c r="D21">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="E21">
-        <v>0.15</v>
+        <v>0.2</v>
       </c>
       <c r="F21">
         <v>0.5</v>
       </c>
     </row>
-    <row r="22" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
         <v>23</v>
       </c>
@@ -1051,16 +1078,16 @@
         <v>0</v>
       </c>
       <c r="D22">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="E22">
-        <v>0.15</v>
+        <v>0.2</v>
       </c>
       <c r="F22">
         <v>0.5</v>
       </c>
     </row>
-    <row r="23" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
         <v>24</v>
       </c>
@@ -1071,17 +1098,17 @@
         <v>0</v>
       </c>
       <c r="D23">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="E23">
-        <v>0.05</v>
+        <v>0.2</v>
       </c>
       <c r="F23">
         <v>0.5</v>
       </c>
       <c r="N23" s="1"/>
     </row>
-    <row r="24" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
         <v>25</v>
       </c>
@@ -1092,16 +1119,16 @@
         <v>0</v>
       </c>
       <c r="D24">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="E24">
-        <v>0.05</v>
+        <v>0.2</v>
       </c>
       <c r="F24">
         <v>0.5</v>
       </c>
     </row>
-    <row r="25" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
         <v>26</v>
       </c>
@@ -1112,16 +1139,16 @@
         <v>0</v>
       </c>
       <c r="D25">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="E25">
-        <v>0.05</v>
+        <v>0.2</v>
       </c>
       <c r="F25">
         <v>0.5</v>
       </c>
     </row>
-    <row r="26" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
         <v>27</v>
       </c>
@@ -1132,16 +1159,16 @@
         <v>0</v>
       </c>
       <c r="D26">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="E26">
-        <v>0.05</v>
+        <v>0.2</v>
       </c>
       <c r="F26">
         <v>0.5</v>
       </c>
     </row>
-    <row r="27" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A27" t="s">
         <v>28</v>
       </c>
@@ -1152,16 +1179,16 @@
         <v>0</v>
       </c>
       <c r="D27">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="E27">
-        <v>0.05</v>
+        <v>0.2</v>
       </c>
       <c r="F27">
         <v>0.5</v>
       </c>
     </row>
-    <row r="28" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A28" t="s">
         <v>29</v>
       </c>
@@ -1172,16 +1199,16 @@
         <v>0</v>
       </c>
       <c r="D28">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="E28">
-        <v>0.05</v>
+        <v>0.2</v>
       </c>
       <c r="F28">
         <v>0.5</v>
       </c>
     </row>
-    <row r="29" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A29" t="s">
         <v>30</v>
       </c>
@@ -1192,16 +1219,16 @@
         <v>0</v>
       </c>
       <c r="D29">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="E29">
-        <v>0.05</v>
+        <v>0.2</v>
       </c>
       <c r="F29">
         <v>0.5</v>
       </c>
     </row>
-    <row r="30" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A30" t="s">
         <v>31</v>
       </c>
@@ -1212,16 +1239,16 @@
         <v>0</v>
       </c>
       <c r="D30">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="E30">
-        <v>0.05</v>
+        <v>0.2</v>
       </c>
       <c r="F30">
         <v>0.5</v>
       </c>
     </row>
-    <row r="31" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A31" t="s">
         <v>32</v>
       </c>
@@ -1232,16 +1259,16 @@
         <v>0</v>
       </c>
       <c r="D31">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="E31">
-        <v>0.05</v>
+        <v>0.2</v>
       </c>
       <c r="F31">
         <v>0.5</v>
       </c>
     </row>
-    <row r="32" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A32" t="s">
         <v>33</v>
       </c>
@@ -1252,16 +1279,16 @@
         <v>0</v>
       </c>
       <c r="D32">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="E32">
-        <v>0.05</v>
+        <v>0.2</v>
       </c>
       <c r="F32">
         <v>0.5</v>
       </c>
     </row>
-    <row r="33" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A33" t="s">
         <v>34</v>
       </c>
@@ -1272,16 +1299,16 @@
         <v>0</v>
       </c>
       <c r="D33">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="E33">
-        <v>0.05</v>
+        <v>0.2</v>
       </c>
       <c r="F33">
         <v>0.5</v>
       </c>
     </row>
-    <row r="34" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A34" t="s">
         <v>35</v>
       </c>
@@ -1292,16 +1319,16 @@
         <v>0</v>
       </c>
       <c r="D34">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="E34">
-        <v>0.05</v>
+        <v>0.2</v>
       </c>
       <c r="F34">
         <v>0.5</v>
       </c>
     </row>
-    <row r="35" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A35" t="s">
         <v>36</v>
       </c>
@@ -1312,16 +1339,16 @@
         <v>0</v>
       </c>
       <c r="D35">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="E35">
-        <v>0.05</v>
+        <v>0.2</v>
       </c>
       <c r="F35">
         <v>0.5</v>
       </c>
     </row>
-    <row r="36" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A36" t="s">
         <v>37</v>
       </c>
@@ -1332,16 +1359,16 @@
         <v>0</v>
       </c>
       <c r="D36">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="E36">
-        <v>0.05</v>
+        <v>0.2</v>
       </c>
       <c r="F36">
         <v>0.5</v>
       </c>
     </row>
-    <row r="37" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A37" t="s">
         <v>38</v>
       </c>
@@ -1352,16 +1379,16 @@
         <v>0</v>
       </c>
       <c r="D37">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="E37">
-        <v>0.05</v>
+        <v>0.2</v>
       </c>
       <c r="F37">
         <v>0.5</v>
       </c>
     </row>
-    <row r="38" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A38" t="s">
         <v>39</v>
       </c>
@@ -1372,16 +1399,16 @@
         <v>0</v>
       </c>
       <c r="D38">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="E38">
-        <v>0.05</v>
+        <v>0.2</v>
       </c>
       <c r="F38">
         <v>0.5</v>
       </c>
     </row>
-    <row r="39" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A39" t="s">
         <v>40</v>
       </c>
@@ -1392,16 +1419,16 @@
         <v>0</v>
       </c>
       <c r="D39">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="E39">
-        <v>0.05</v>
+        <v>0.2</v>
       </c>
       <c r="F39">
         <v>0.5</v>
       </c>
     </row>
-    <row r="40" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A40" t="s">
         <v>41</v>
       </c>
@@ -1412,16 +1439,16 @@
         <v>0</v>
       </c>
       <c r="D40">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="E40">
-        <v>0.05</v>
+        <v>0.2</v>
       </c>
       <c r="F40">
         <v>0.5</v>
       </c>
     </row>
-    <row r="41" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A41" t="s">
         <v>42</v>
       </c>
@@ -1432,16 +1459,16 @@
         <v>0</v>
       </c>
       <c r="D41">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="E41">
-        <v>0.05</v>
+        <v>0.2</v>
       </c>
       <c r="F41">
         <v>0.5</v>
       </c>
     </row>
-    <row r="42" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A42" t="s">
         <v>43</v>
       </c>
@@ -1452,16 +1479,16 @@
         <v>0</v>
       </c>
       <c r="D42">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="E42">
-        <v>0.05</v>
+        <v>0.2</v>
       </c>
       <c r="F42">
         <v>0.5</v>
       </c>
     </row>
-    <row r="43" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A43" t="s">
         <v>44</v>
       </c>
@@ -1472,16 +1499,16 @@
         <v>0</v>
       </c>
       <c r="D43">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="E43">
-        <v>0.05</v>
+        <v>0.2</v>
       </c>
       <c r="F43">
         <v>0.5</v>
       </c>
     </row>
-    <row r="44" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A44" t="s">
         <v>45</v>
       </c>
@@ -1492,16 +1519,16 @@
         <v>0</v>
       </c>
       <c r="D44">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="E44">
-        <v>0.05</v>
+        <v>0.2</v>
       </c>
       <c r="F44">
         <v>0.5</v>
       </c>
     </row>
-    <row r="45" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A45" t="s">
         <v>46</v>
       </c>
@@ -1518,7 +1545,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="46" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A46" t="s">
         <v>47</v>
       </c>
@@ -1535,7 +1562,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="47" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A47" t="s">
         <v>48</v>
       </c>
@@ -1552,7 +1579,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="48" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A48" t="s">
         <v>49</v>
       </c>
@@ -1569,7 +1596,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="49" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A49" t="s">
         <v>50</v>
       </c>
@@ -1586,7 +1613,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="50" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A50" t="s">
         <v>51</v>
       </c>
@@ -1603,7 +1630,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="51" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A51" t="s">
         <v>52</v>
       </c>
@@ -1620,7 +1647,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="52" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A52" t="s">
         <v>53</v>
       </c>
@@ -1637,7 +1664,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="53" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A53" t="s">
         <v>54</v>
       </c>
@@ -1654,7 +1681,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="54" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A54" t="s">
         <v>55</v>
       </c>
@@ -1671,7 +1698,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="55" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A55" t="s">
         <v>56</v>
       </c>
@@ -1688,7 +1715,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="56" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A56" t="s">
         <v>57</v>
       </c>
@@ -1705,7 +1732,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="57" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A57" t="s">
         <v>58</v>
       </c>
@@ -1722,7 +1749,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="58" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A58" t="s">
         <v>59</v>
       </c>
@@ -1739,7 +1766,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="59" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A59" t="s">
         <v>60</v>
       </c>
@@ -1756,7 +1783,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="60" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A60" t="s">
         <v>61</v>
       </c>
@@ -1773,7 +1800,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="61" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A61" t="s">
         <v>62</v>
       </c>
@@ -1790,7 +1817,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="62" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A62" t="s">
         <v>63</v>
       </c>
@@ -1807,7 +1834,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="63" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A63" t="s">
         <v>64</v>
       </c>
@@ -1824,7 +1851,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="64" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A64" t="s">
         <v>65</v>
       </c>
@@ -1841,7 +1868,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="65" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A65" t="s">
         <v>66</v>
       </c>
@@ -1858,7 +1885,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="66" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A66" t="s">
         <v>67</v>
       </c>
@@ -1875,7 +1902,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="67" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A67" t="s">
         <v>68</v>
       </c>
@@ -1894,5 +1921,6 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
 </worksheet>
 </file>